--- a/Таблица действий по приоритету.xlsx
+++ b/Таблица действий по приоритету.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytal\OneDrive\Documents\GitHub\fiit-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="8_{0256A24B-44AF-4200-A0D3-7575A16BC018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDFEA545-AD9D-45DE-B747-C139C8D110CB}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{0256A24B-44AF-4200-A0D3-7575A16BC018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B36CDADF-CF05-4A3D-81A3-98F600FE27EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EDC6D9A4-20E5-40C2-B5E9-B3B2F6C8DAEA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Авторизация</t>
   </si>
@@ -110,13 +110,40 @@
     <t>Таблица действий персонала по приоритету (сверху вниз)</t>
   </si>
   <si>
-    <t>алексей</t>
-  </si>
-  <si>
-    <t>айтаал</t>
-  </si>
-  <si>
-    <t>федот</t>
+    <t>добавление</t>
+  </si>
+  <si>
+    <t>удаление</t>
+  </si>
+  <si>
+    <t>редактирование</t>
+  </si>
+  <si>
+    <t>Айтаал</t>
+  </si>
+  <si>
+    <t>Федот</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>диск</t>
+  </si>
+  <si>
+    <t>клиент</t>
+  </si>
+  <si>
+    <t>чс</t>
+  </si>
+  <si>
+    <t>анализ продаж</t>
+  </si>
+  <si>
+    <t>тариф</t>
+  </si>
+  <si>
+    <t>авторизация</t>
   </si>
 </sst>
 </file>
@@ -177,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -224,11 +251,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +382,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,40 +732,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7C85D8-0B68-47EB-A484-F3740D5CEBD2}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -615,11 +782,20 @@
       <c r="E3" s="9"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="19"/>
+      <c r="I3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -641,11 +817,20 @@
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="13"/>
+      <c r="M4" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -657,11 +842,20 @@
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -677,11 +871,19 @@
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="7"/>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -697,11 +899,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="7"/>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -717,11 +916,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="8"/>
       <c r="G8" s="7"/>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -743,11 +939,8 @@
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -759,30 +952,27 @@
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
